--- a/biology/Botanique/Guavaberry/Guavaberry.xlsx
+++ b/biology/Botanique/Guavaberry/Guavaberry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrciara floribunda, Guaveberry, Merisier-cerise
-Le guavaberry ou rumberry est une baie des caraïbes et également une liqueur de l’île de Saint-Martin produite à partir de ce fruit. Elle est appelée guavaberry, mirto ou murta à Puerto Rico ; guaveberry à Saint-Martin et Saint-Eustache ; guayabillo au Guatemala ; coco-carette, merisier-cerise, ou bois de basse batard en Guadeloupe et en Martinique ; cabo de chivo au Salvador ; escobillo au Nicaragua ; mije ou mije colorado à Cuba ; mijo dans la république dominicaine ; bois mulatre à Haïti ; roode bosch guave, saitjaberan, ou kakrioe hariraroe tataroe au Suriname. Au Venezuela les noms guayabito et guayabillo blanco sont aussi utilisés pour les espèces proches, M. caurensis Steyerm et d'autres plantes[2].
+Le guavaberry ou rumberry est une baie des caraïbes et également une liqueur de l’île de Saint-Martin produite à partir de ce fruit. Elle est appelée guavaberry, mirto ou murta à Puerto Rico ; guaveberry à Saint-Martin et Saint-Eustache ; guayabillo au Guatemala ; coco-carette, merisier-cerise, ou bois de basse batard en Guadeloupe et en Martinique ; cabo de chivo au Salvador ; escobillo au Nicaragua ; mije ou mije colorado à Cuba ; mijo dans la république dominicaine ; bois mulatre à Haïti ; roode bosch guave, saitjaberan, ou kakrioe hariraroe tataroe au Suriname. Au Venezuela les noms guayabito et guayabillo blanco sont aussi utilisés pour les espèces proches, M. caurensis Steyerm et d'autres plantes.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Liqueur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La guavaberry rhum est, depuis plusieurs décennies, une liqueur traditionnelle de Saint-Martin produite à partir de rhum vieilli en fûts de chêne, de sucre de canne et de guavaberries sauvages récoltées sur les collines du centre de l'île[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La guavaberry rhum est, depuis plusieurs décennies, une liqueur traditionnelle de Saint-Martin produite à partir de rhum vieilli en fûts de chêne, de sucre de canne et de guavaberries sauvages récoltées sur les collines du centre de l'île
 Elle est bue traditionnellement pendant la période de Noël.
 </t>
         </is>
